--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400">
   <si>
     <t>Step No</t>
   </si>
@@ -382,12 +382,12 @@
     <t>CONTACT_PNONE_NUMBER</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>CONTACT_SEQUENCE</t>
   </si>
   <si>
-    <t>primary</t>
-  </si>
-  <si>
     <t>APP_AUTHORIZE_PERSON</t>
   </si>
   <si>
@@ -1019,9 +1019,6 @@
   </si>
   <si>
     <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
   </si>
   <si>
     <t>SelectByValue</t>
@@ -1273,13 +1270,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1287,7 +1277,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,32 +1299,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,26 +1330,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1378,6 +1353,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1388,22 +1370,37 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,13 +1434,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,79 +1530,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,55 +1560,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,13 +1584,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,15 +1678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1707,11 +1695,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1739,49 +1775,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1799,130 +1796,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2380,8 +2377,8 @@
   <sheetPr/>
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3326,16 +3323,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="7" t="s">
         <v>117</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -5552,17 +5549,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B129 B12:B78 B116:B121 B122:B126 B131:B146 C2:C3 C12:C78 C116:C121 C122:C126 C129:C146">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B129 B12:B43 B45:B78 B116:B121 B122:B126 B131:B146 C2:C3 C12:C43 C45:C78 C116:C121 C122:C126 C129:C146">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C90 B99 C99 B4:B11 B79:B98 B100:B111 C7:C9 C88:C89 C91:C94 C95:C98 C100:C105 C106:C111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C90 B99 C99 B4:B11 B79:B98 B100:B111 B112:B113 C7:C9 C88:C89 C91:C94 C95:C98 C100:C105 C106:C111 C112:C113">
       <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 C44">
+      <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C115">
       <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B112:B113 C112:C113">
-      <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114:B115">
       <formula1>[4]DataList!#REF!</formula1>
@@ -5759,12 +5756,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>329</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5774,152 +5771,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5929,62 +5926,62 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>313</v>
@@ -5992,12 +5989,12 @@
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>313</v>
@@ -6005,27 +6002,27 @@
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>313</v>
@@ -6033,7 +6030,7 @@
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>313</v>
@@ -6041,92 +6038,92 @@
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6141,12 +6138,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401">
   <si>
     <t>Step No</t>
   </si>
@@ -478,226 +478,229 @@
     <t>APP_PRI_INSURANCE</t>
   </si>
   <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>Enter Insurance name</t>
+  </si>
+  <si>
+    <t>Insurance entered</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Select Insurance type</t>
+  </si>
+  <si>
+    <t>Insurance selected</t>
+  </si>
+  <si>
+    <t>APP_PLANTYPE</t>
+  </si>
+  <si>
+    <t>EPO</t>
+  </si>
+  <si>
+    <t>Select Plan type</t>
+  </si>
+  <si>
+    <t>Plan type selected</t>
+  </si>
+  <si>
+    <t>APP_INS_NUMBER</t>
+  </si>
+  <si>
+    <t>Enter Policy number</t>
+  </si>
+  <si>
+    <t>Policy number entered</t>
+  </si>
+  <si>
+    <t>APP_INS_TYPE</t>
+  </si>
+  <si>
+    <t>Medicare</t>
+  </si>
+  <si>
+    <t>Insurance type selected</t>
+  </si>
+  <si>
+    <t>APP_SUBS_NAME</t>
+  </si>
+  <si>
+    <t>Enter Subscriber name</t>
+  </si>
+  <si>
+    <t>Subscriber name entered</t>
+  </si>
+  <si>
+    <t>APP_GROUP_NAME</t>
+  </si>
+  <si>
+    <t>Enter Group name</t>
+  </si>
+  <si>
+    <t>Group name entered</t>
+  </si>
+  <si>
+    <t>APP_SUBS_DOB</t>
+  </si>
+  <si>
+    <t>APP_SUBS_DOB_DATE</t>
+  </si>
+  <si>
+    <t>Select Date</t>
+  </si>
+  <si>
+    <t>Date selected</t>
+  </si>
+  <si>
+    <t>APP_PRIM_TEL</t>
+  </si>
+  <si>
+    <t>Enter Primary Phone number</t>
+  </si>
+  <si>
+    <t>Primary phone number entered</t>
+  </si>
+  <si>
+    <t>APP_PRESCRI_DRUG</t>
+  </si>
+  <si>
+    <t>Click No for Does this plan cover prescription drugs at the pharmacy and provider office?</t>
+  </si>
+  <si>
+    <t>Yes clicked</t>
+  </si>
+  <si>
+    <t>APP_MEDI_SERVICE</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for medical services:</t>
+  </si>
+  <si>
+    <t>Entered</t>
+  </si>
+  <si>
+    <t>APP_PHARMACY_BENEFITS</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for pharmacy benefits:</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_PART_NO</t>
+  </si>
+  <si>
+    <t>Do you have Medicare Part D?</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_SUPP_NO</t>
+  </si>
+  <si>
+    <t>Does the patient have a Medicare Supplement?</t>
+  </si>
+  <si>
+    <t>No clicked</t>
+  </si>
+  <si>
+    <t>APP_SEC_INSURANCE_NO</t>
+  </si>
+  <si>
+    <t>Do you have Secondary Insurance?</t>
+  </si>
+  <si>
+    <t>APP_COBRA _EFFECT_NO</t>
+  </si>
+  <si>
+    <t>Is insurance coverage continuation under COBRA in effect?</t>
+  </si>
+  <si>
+    <t>SEARCH_PROVIDER</t>
+  </si>
+  <si>
+    <t>NAME_TAB_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>Click Name tab</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_STATE</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Select State from the search popup</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_LASTNAME</t>
+  </si>
+  <si>
+    <t>FACILITY/PRACTICE_NAME</t>
+  </si>
+  <si>
+    <t>Enter Facility name</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH</t>
+  </si>
+  <si>
+    <t>Click Search button</t>
+  </si>
+  <si>
+    <t>Search clicked</t>
+  </si>
+  <si>
+    <t>CLICK_HERE_PROVIDER</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_LAST_NAME</t>
+  </si>
+  <si>
+    <t>TenDigitPhone</t>
+  </si>
+  <si>
+    <t>ADD_PROV_NPI</t>
+  </si>
+  <si>
+    <t>Enter NPI</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FACILITY_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_TAXID</t>
+  </si>
+  <si>
+    <t>Enter TaxID</t>
+  </si>
+  <si>
+    <t>PAYMENT_TYPE_EFT</t>
+  </si>
+  <si>
+    <t>Click EFT YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PAYMENT_YES</t>
+  </si>
+  <si>
+    <t>Click Auth Payment YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PHYSICIAN_YES</t>
+  </si>
+  <si>
+    <t>Click Auth physician Yes</t>
+  </si>
+  <si>
+    <t>PROV_ADDRESS_TYPE</t>
+  </si>
+  <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Enter Insurance name</t>
-  </si>
-  <si>
-    <t>Insurance entered</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>Select Insurance type</t>
-  </si>
-  <si>
-    <t>Insurance selected</t>
-  </si>
-  <si>
-    <t>APP_PLANTYPE</t>
-  </si>
-  <si>
-    <t>EPO</t>
-  </si>
-  <si>
-    <t>Select Plan type</t>
-  </si>
-  <si>
-    <t>Plan type selected</t>
-  </si>
-  <si>
-    <t>APP_INS_NUMBER</t>
-  </si>
-  <si>
-    <t>Enter Policy number</t>
-  </si>
-  <si>
-    <t>Policy number entered</t>
-  </si>
-  <si>
-    <t>APP_INS_TYPE</t>
-  </si>
-  <si>
-    <t>Medicare</t>
-  </si>
-  <si>
-    <t>Insurance type selected</t>
-  </si>
-  <si>
-    <t>APP_SUBS_NAME</t>
-  </si>
-  <si>
-    <t>Enter Subscriber name</t>
-  </si>
-  <si>
-    <t>Subscriber name entered</t>
-  </si>
-  <si>
-    <t>APP_GROUP_NAME</t>
-  </si>
-  <si>
-    <t>Enter Group name</t>
-  </si>
-  <si>
-    <t>Group name entered</t>
-  </si>
-  <si>
-    <t>APP_SUBS_DOB</t>
-  </si>
-  <si>
-    <t>APP_SUBS_DOB_DATE</t>
-  </si>
-  <si>
-    <t>Select Date</t>
-  </si>
-  <si>
-    <t>Date selected</t>
-  </si>
-  <si>
-    <t>APP_PRIM_TEL</t>
-  </si>
-  <si>
-    <t>Enter Primary Phone number</t>
-  </si>
-  <si>
-    <t>Primary phone number entered</t>
-  </si>
-  <si>
-    <t>APP_PRESCRI_DRUG</t>
-  </si>
-  <si>
-    <t>Click No for Does this plan cover prescription drugs at the pharmacy and provider office?</t>
-  </si>
-  <si>
-    <t>Yes clicked</t>
-  </si>
-  <si>
-    <t>APP_MEDI_SERVICE</t>
-  </si>
-  <si>
-    <t>Co-Pay or Coinsurance for medical services:</t>
-  </si>
-  <si>
-    <t>Entered</t>
-  </si>
-  <si>
-    <t>APP_PHARMACY_BENEFITS</t>
-  </si>
-  <si>
-    <t>Co-Pay or Coinsurance for pharmacy benefits:</t>
-  </si>
-  <si>
-    <t>APP_MEDICARE_PART_NO</t>
-  </si>
-  <si>
-    <t>Do you have Medicare Part D?</t>
-  </si>
-  <si>
-    <t>APP_MEDICARE_SUPP_NO</t>
-  </si>
-  <si>
-    <t>Does the patient have a Medicare Supplement?</t>
-  </si>
-  <si>
-    <t>No clicked</t>
-  </si>
-  <si>
-    <t>APP_SEC_INSURANCE_NO</t>
-  </si>
-  <si>
-    <t>Do you have Secondary Insurance?</t>
-  </si>
-  <si>
-    <t>APP_COBRA _EFFECT_NO</t>
-  </si>
-  <si>
-    <t>Is insurance coverage continuation under COBRA in effect?</t>
-  </si>
-  <si>
-    <t>SEARCH_PROVIDER</t>
-  </si>
-  <si>
-    <t>NAME_TAB_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>Click Name tab</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_STATE</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Select State from the search popup</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_LASTNAME</t>
-  </si>
-  <si>
-    <t>FACILITY/PRACTICE_NAME</t>
-  </si>
-  <si>
-    <t>Enter Facility name</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH</t>
-  </si>
-  <si>
-    <t>Click Search button</t>
-  </si>
-  <si>
-    <t>Search clicked</t>
-  </si>
-  <si>
-    <t>CLICK_HERE_PROVIDER</t>
-  </si>
-  <si>
-    <t>ADD_PROV_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>ADD_PROV_LAST_NAME</t>
-  </si>
-  <si>
-    <t>TenDigitPhone</t>
-  </si>
-  <si>
-    <t>ADD_PROV_NPI</t>
-  </si>
-  <si>
-    <t>Enter NPI</t>
-  </si>
-  <si>
-    <t>ADD_PROV_FACILITY_NAME</t>
-  </si>
-  <si>
-    <t>ADD_PROV_TAXID</t>
-  </si>
-  <si>
-    <t>Enter TaxID</t>
-  </si>
-  <si>
-    <t>PAYMENT_TYPE_EFT</t>
-  </si>
-  <si>
-    <t>Click EFT YEs</t>
-  </si>
-  <si>
-    <t>AUTH_PAYMENT_YES</t>
-  </si>
-  <si>
-    <t>Click Auth Payment YEs</t>
-  </si>
-  <si>
-    <t>AUTH_PHYSICIAN_YES</t>
-  </si>
-  <si>
-    <t>Click Auth physician Yes</t>
-  </si>
-  <si>
-    <t>PROV_ADDRESS_TYPE</t>
   </si>
   <si>
     <t>selected</t>
@@ -1239,10 +1242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1269,6 +1272,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1283,48 +1384,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1332,36 +1394,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1376,40 +1408,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1434,7 +1437,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,7 +1485,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,19 +1545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,91 +1557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,31 +1575,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,17 +1681,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1707,6 +1710,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1752,21 +1770,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1778,13 +1781,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1796,130 +1799,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2377,8 +2380,8 @@
   <sheetPr/>
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:E44"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4009,7 +4012,7 @@
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="8">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -4053,7 +4056,7 @@
       <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="8">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -4095,8 +4098,8 @@
       <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="8">
-        <v>80</v>
+      <c r="A79" s="7">
+        <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>19</v>
@@ -4116,7 +4119,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="7">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>11</v>
@@ -4131,8 +4134,8 @@
       <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="8">
-        <v>82</v>
+      <c r="A81" s="7">
+        <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>19</v>
@@ -4154,7 +4157,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>11</v>
@@ -4169,8 +4172,8 @@
       <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="8">
-        <v>84</v>
+      <c r="A83" s="7">
+        <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>39</v>
@@ -4194,7 +4197,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>63</v>
@@ -4215,8 +4218,8 @@
       <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="8">
-        <v>86</v>
+      <c r="A85" s="7">
+        <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>63</v>
@@ -4238,7 +4241,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>19</v>
@@ -4259,8 +4262,8 @@
       <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="8">
-        <v>88</v>
+      <c r="A87" s="7">
+        <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>11</v>
@@ -4280,7 +4283,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>19</v>
@@ -4297,8 +4300,8 @@
       <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="8">
-        <v>90</v>
+      <c r="A89" s="7">
+        <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>11</v>
@@ -4314,7 +4317,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="7">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>63</v>
@@ -4335,8 +4338,8 @@
       <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="8">
-        <v>92</v>
+      <c r="A91" s="7">
+        <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>63</v>
@@ -4358,7 +4361,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="7">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>209</v>
@@ -4379,8 +4382,8 @@
       <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="8">
-        <v>94</v>
+      <c r="A93" s="7">
+        <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>63</v>
@@ -4402,7 +4405,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="7">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>209</v>
@@ -4423,8 +4426,8 @@
       <c r="H94" s="7"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="8">
-        <v>96</v>
+      <c r="A95" s="7">
+        <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>19</v>
@@ -4446,7 +4449,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>19</v>
@@ -4467,8 +4470,8 @@
       <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="8">
-        <v>98</v>
+      <c r="A97" s="7">
+        <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>19</v>
@@ -4490,7 +4493,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>39</v>
@@ -4502,19 +4505,19 @@
         <v>221</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H98" s="7"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="8">
-        <v>100</v>
+      <c r="A99" s="7">
+        <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>63</v>
@@ -4523,13 +4526,13 @@
         <v>20</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>132</v>
@@ -4538,7 +4541,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="7">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>63</v>
@@ -4547,7 +4550,7 @@
         <v>15</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -4555,8 +4558,8 @@
       <c r="H100" s="7"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="8">
-        <v>102</v>
+      <c r="A101" s="7">
+        <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>39</v>
@@ -4565,10 +4568,10 @@
         <v>20</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
@@ -4576,7 +4579,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="7">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>44</v>
@@ -4585,18 +4588,18 @@
         <v>20</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="8">
-        <v>104</v>
+      <c r="A103" s="7">
+        <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>44</v>
@@ -4616,7 +4619,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>44</v>
@@ -4625,7 +4628,7 @@
         <v>15</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E104" s="7">
         <v>9789045678</v>
@@ -4635,8 +4638,8 @@
       <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="8">
-        <v>106</v>
+      <c r="A105" s="7">
+        <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>44</v>
@@ -4645,7 +4648,7 @@
         <v>15</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E105" s="8">
         <v>21331</v>
@@ -4656,7 +4659,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="7">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>44</v>
@@ -4665,7 +4668,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E106" s="7">
         <v>97989898982</v>
@@ -4675,8 +4678,8 @@
       <c r="H106" s="7"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="8">
-        <v>108</v>
+      <c r="A107" s="7">
+        <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>63</v>
@@ -4685,7 +4688,7 @@
         <v>15</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>144</v>
@@ -4696,7 +4699,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="7">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>63</v>
@@ -4705,18 +4708,18 @@
         <v>15</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="8">
-        <v>110</v>
+      <c r="A109" s="7">
+        <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>63</v>
@@ -4725,7 +4728,7 @@
         <v>15</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>144</v>
@@ -4736,7 +4739,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="7">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>19</v>
@@ -4745,7 +4748,7 @@
         <v>15</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -4754,7 +4757,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="7">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>11</v>
@@ -4770,7 +4773,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="7">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>19</v>
@@ -4779,20 +4782,20 @@
         <v>20</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H112" s="8"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="7">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>11</v>
@@ -4812,7 +4815,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="7">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>19</v>
@@ -4821,7 +4824,7 @@
         <v>20</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -4830,7 +4833,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="7">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>19</v>
@@ -4852,7 +4855,7 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="7">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>11</v>
@@ -4872,7 +4875,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="7">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>44</v>
@@ -4881,22 +4884,22 @@
         <v>20</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>148</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H117" s="8"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="7">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>11</v>
@@ -4912,7 +4915,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="7">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>151</v>
@@ -4921,16 +4924,16 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H119" s="8"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="7">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>19</v>
@@ -4939,20 +4942,20 @@
         <v>20</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="7">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>19</v>
@@ -4965,16 +4968,16 @@
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H121" s="8"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="7">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>19</v>
@@ -4996,7 +4999,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="7">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>11</v>
@@ -5016,7 +5019,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="7">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>19</v>
@@ -5025,20 +5028,20 @@
         <v>20</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="7">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>19</v>
@@ -5047,7 +5050,7 @@
         <v>20</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
@@ -5056,7 +5059,7 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="7">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>11</v>
@@ -5072,7 +5075,7 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="7">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>19</v>
@@ -5081,20 +5084,20 @@
         <v>20</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="7">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>11</v>
@@ -5105,16 +5108,16 @@
         <v>5</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H128" s="7"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="7">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>19</v>
@@ -5123,20 +5126,20 @@
         <v>20</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H129" s="8"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="7">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>19</v>
@@ -5145,20 +5148,20 @@
         <v>20</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H130" s="7"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="7">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>11</v>
@@ -5174,7 +5177,7 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="7">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>63</v>
@@ -5183,22 +5186,22 @@
         <v>15</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H132" s="7"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="7">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>63</v>
@@ -5207,22 +5210,22 @@
         <v>15</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H133" s="8"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="7">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>44</v>
@@ -5231,7 +5234,7 @@
         <v>15</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E134" s="7">
         <v>9889656446</v>
@@ -5246,7 +5249,7 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="7">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>19</v>
@@ -5255,20 +5258,20 @@
         <v>15</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H135" s="8"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="7">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>11</v>
@@ -5288,183 +5291,183 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="7">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H137" s="8"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="7">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H138" s="7"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="7">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H139" s="8"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="7">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H140" s="7"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="7">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H141" s="8"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="7">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H142" s="7"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="7">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H143" s="8"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="7">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H144" s="7"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="7">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>19</v>
@@ -5473,20 +5476,20 @@
         <v>20</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H145" s="8"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>11</v>
@@ -5502,7 +5505,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="7">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>19</v>
@@ -5511,20 +5514,20 @@
         <v>20</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H147" s="8"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="7">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>11</v>
@@ -5539,7 +5542,7 @@
       <c r="H148" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B128">
       <formula1/>
     </dataValidation>
@@ -5549,14 +5552,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B129 B12:B43 B45:B78 B116:B121 B122:B126 B131:B146 C2:C3 C12:C43 C45:C78 C116:C121 C122:C126 C129:C146">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B44 C44 B129 B12:B43 B45:B78 B116:B121 B122:B126 B131:B146 C2:C3 C12:C43 C45:C78 C116:C121 C122:C126 C129:C146">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C90 B99 C99 B4:B11 B79:B98 B100:B111 B112:B113 C7:C9 C88:C89 C91:C94 C95:C98 C100:C105 C106:C111 C112:C113">
       <formula1>[3]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 C44">
-      <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C115">
       <formula1>[2]DataList!#REF!</formula1>
@@ -5595,7 +5595,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5603,20 +5603,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5627,20 +5627,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5648,47 +5648,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5698,12 +5698,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5713,45 +5713,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5761,7 +5761,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5771,152 +5771,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5926,204 +5926,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6138,12 +6138,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13230"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399">
   <si>
     <t>Step No</t>
   </si>
@@ -499,9 +500,6 @@
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>EPO</t>
-  </si>
-  <si>
     <t>Select Plan type</t>
   </si>
   <si>
@@ -518,9 +516,6 @@
   </si>
   <si>
     <t>APP_INS_TYPE</t>
-  </si>
-  <si>
-    <t>Medicare</t>
   </si>
   <si>
     <t>Insurance type selected</t>
@@ -1243,9 +1238,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1272,9 +1267,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1289,14 +1283,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1311,7 +1306,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1319,7 +1345,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,29 +1389,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1370,53 +1403,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1437,6 +1432,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1449,7 +1468,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,13 +1492,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,19 +1582,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,109 +1612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,14 +1622,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1681,6 +1682,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1705,15 +1717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1725,6 +1728,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1781,7 +1793,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1799,134 +1811,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1936,6 +1948,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2088,6 +2101,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2380,8 +2408,8 @@
   <sheetPr/>
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3721,8 +3749,8 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>39</v>
+      <c r="B62" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>20</v>
@@ -3730,14 +3758,14 @@
       <c r="D62" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="7">
+        <v>1</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -3752,14 +3780,14 @@
         <v>15</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="H63" s="8"/>
     </row>
@@ -3767,23 +3795,23 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>39</v>
+      <c r="B64" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="E64" s="7">
+        <v>1</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>152</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H64" s="7"/>
     </row>
@@ -3798,14 +3826,14 @@
         <v>15</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H65" s="8"/>
     </row>
@@ -3820,16 +3848,16 @@
         <v>15</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E66" s="7">
         <v>1235647899</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -3844,7 +3872,7 @@
         <v>20</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -3862,14 +3890,14 @@
         <v>20</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -3884,16 +3912,16 @@
         <v>15</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E69" s="8">
         <v>97890456789</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H69" s="8"/>
     </row>
@@ -3908,14 +3936,14 @@
         <v>20</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -3930,16 +3958,16 @@
         <v>20</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E71" s="8">
         <v>1230</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H71" s="8"/>
     </row>
@@ -3954,16 +3982,16 @@
         <v>20</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E72" s="7">
         <v>1550</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -3978,14 +4006,14 @@
         <v>20</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H73" s="8"/>
     </row>
@@ -4000,14 +4028,14 @@
         <v>20</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -4022,14 +4050,14 @@
         <v>20</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H75" s="8"/>
     </row>
@@ -4044,14 +4072,14 @@
         <v>20</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H76" s="7"/>
     </row>
@@ -4108,12 +4136,12 @@
         <v>15</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H79" s="8"/>
     </row>
@@ -4144,11 +4172,11 @@
         <v>20</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>35</v>
@@ -4182,13 +4210,13 @@
         <v>20</v>
       </c>
       <c r="D83" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>103</v>
@@ -4206,7 +4234,7 @@
         <v>15</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7" t="s">
@@ -4228,14 +4256,14 @@
         <v>15</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H85" s="8"/>
     </row>
@@ -4250,14 +4278,14 @@
         <v>15</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H86" s="7"/>
     </row>
@@ -4292,7 +4320,7 @@
         <v>20</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
@@ -4326,7 +4354,7 @@
         <v>20</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7" t="s">
@@ -4348,7 +4376,7 @@
         <v>20</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8" t="s">
@@ -4364,20 +4392,20 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H92" s="7"/>
     </row>
@@ -4392,14 +4420,14 @@
         <v>20</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H93" s="8"/>
     </row>
@@ -4408,20 +4436,20 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H94" s="7"/>
     </row>
@@ -4436,11 +4464,11 @@
         <v>20</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>35</v>
@@ -4458,11 +4486,11 @@
         <v>20</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>35</v>
@@ -4480,11 +4508,11 @@
         <v>20</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>35</v>
@@ -4502,16 +4530,16 @@
         <v>20</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H98" s="7"/>
     </row>
@@ -4526,13 +4554,13 @@
         <v>20</v>
       </c>
       <c r="D99" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>132</v>
@@ -4550,7 +4578,7 @@
         <v>15</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -4568,10 +4596,10 @@
         <v>20</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
@@ -4588,10 +4616,10 @@
         <v>20</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
@@ -4628,7 +4656,7 @@
         <v>15</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E104" s="7">
         <v>9789045678</v>
@@ -4648,7 +4676,7 @@
         <v>15</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E105" s="8">
         <v>21331</v>
@@ -4668,7 +4696,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E106" s="7">
         <v>97989898982</v>
@@ -4688,7 +4716,7 @@
         <v>15</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>144</v>
@@ -4708,10 +4736,10 @@
         <v>15</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
@@ -4728,7 +4756,7 @@
         <v>15</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>144</v>
@@ -4748,7 +4776,7 @@
         <v>15</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -4782,14 +4810,14 @@
         <v>20</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H112" s="8"/>
     </row>
@@ -4824,7 +4852,7 @@
         <v>20</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -4884,16 +4912,16 @@
         <v>20</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>148</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H117" s="8"/>
     </row>
@@ -4924,10 +4952,10 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H119" s="8"/>
     </row>
@@ -4942,14 +4970,14 @@
         <v>20</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -4964,14 +4992,14 @@
         <v>20</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H121" s="8"/>
     </row>
@@ -5028,14 +5056,14 @@
         <v>20</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -5050,7 +5078,7 @@
         <v>20</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
@@ -5084,14 +5112,14 @@
         <v>20</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H127" s="8"/>
     </row>
@@ -5108,10 +5136,10 @@
         <v>5</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -5126,14 +5154,14 @@
         <v>20</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H129" s="8"/>
     </row>
@@ -5148,14 +5176,14 @@
         <v>20</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -5186,16 +5214,16 @@
         <v>15</v>
       </c>
       <c r="D132" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F132" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="G132" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -5210,16 +5238,16 @@
         <v>15</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G133" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="H133" s="8"/>
     </row>
@@ -5234,7 +5262,7 @@
         <v>15</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E134" s="7">
         <v>9889656446</v>
@@ -5258,14 +5286,14 @@
         <v>15</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H135" s="8"/>
     </row>
@@ -5294,20 +5322,20 @@
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H137" s="8"/>
     </row>
@@ -5316,20 +5344,20 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -5338,20 +5366,20 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H139" s="8"/>
     </row>
@@ -5360,20 +5388,20 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -5382,20 +5410,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H141" s="8"/>
     </row>
@@ -5404,20 +5432,20 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -5426,20 +5454,20 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H143" s="8"/>
     </row>
@@ -5448,20 +5476,20 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -5476,14 +5504,14 @@
         <v>20</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H145" s="8"/>
     </row>
@@ -5514,14 +5542,14 @@
         <v>20</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H147" s="8"/>
     </row>
@@ -5542,7 +5570,7 @@
       <c r="H148" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B128">
       <formula1/>
     </dataValidation>
@@ -5552,11 +5580,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B44 C44 B129 B12:B43 B45:B78 B116:B121 B122:B126 B131:B146 C2:C3 C12:C43 C45:C78 C116:C121 C122:C126 C129:C146">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B44 C44 B63 B129 B12:B43 B45:B61 B65:B78 B116:B121 B122:B126 B131:B146 C2:C3 C12:C43 C45:C78 C116:C121 C122:C126 C129:C146">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C90 B99 C99 B4:B11 B79:B98 B100:B111 B112:B113 C7:C9 C88:C89 C91:C94 C95:C98 C100:C105 C106:C111 C112:C113">
       <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62 B64">
+      <formula1>[8]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C115">
       <formula1>[2]DataList!#REF!</formula1>
@@ -5595,7 +5626,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5603,20 +5634,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5627,20 +5658,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5648,47 +5679,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5698,12 +5729,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5713,45 +5744,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5761,7 +5792,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5771,152 +5802,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5926,204 +5957,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6138,12 +6169,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397">
   <si>
     <t>Step No</t>
   </si>
@@ -623,9 +623,6 @@
     <t>SEARCH_PROV_STATE</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
     <t>Select State from the search popup</t>
   </si>
   <si>
@@ -714,9 +711,6 @@
   </si>
   <si>
     <t>ADD_PROV_PATIENT_STATE</t>
-  </si>
-  <si>
-    <t>Alaska</t>
   </si>
   <si>
     <t>ADD_PROV_CITY</t>
@@ -1237,10 +1231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1267,8 +1261,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1279,29 +1274,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1322,7 +1294,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1336,13 +1315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1352,29 +1324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1389,7 +1339,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,15 +1391,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1432,13 +1426,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,13 +1468,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,7 +1498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,7 +1516,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,55 +1552,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,78 +1606,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1682,17 +1670,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1717,6 +1694,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1734,9 +1720,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1756,17 +1753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1781,19 +1767,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1811,134 +1788,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1948,7 +1925,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2408,8 +2384,8 @@
   <sheetPr/>
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3749,7 +3725,7 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -3795,7 +3771,7 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -4204,7 +4180,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>20</v>
@@ -4212,11 +4188,11 @@
       <c r="D83" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="8">
+        <v>1</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>103</v>
@@ -4234,7 +4210,7 @@
         <v>15</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7" t="s">
@@ -4256,11 +4232,11 @@
         <v>15</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>180</v>
@@ -4278,14 +4254,14 @@
         <v>15</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H86" s="7"/>
     </row>
@@ -4320,7 +4296,7 @@
         <v>20</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
@@ -4354,7 +4330,7 @@
         <v>20</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7" t="s">
@@ -4376,7 +4352,7 @@
         <v>20</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8" t="s">
@@ -4392,17 +4368,17 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>180</v>
@@ -4420,11 +4396,11 @@
         <v>20</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>180</v>
@@ -4436,17 +4412,17 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>180</v>
@@ -4464,11 +4440,11 @@
         <v>20</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>35</v>
@@ -4486,11 +4462,11 @@
         <v>20</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>35</v>
@@ -4508,11 +4484,11 @@
         <v>20</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>35</v>
@@ -4530,16 +4506,16 @@
         <v>20</v>
       </c>
       <c r="D98" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H98" s="7"/>
     </row>
@@ -4554,13 +4530,13 @@
         <v>20</v>
       </c>
       <c r="D99" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E99" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="F99" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>132</v>
@@ -4578,7 +4554,7 @@
         <v>15</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -4590,16 +4566,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="E101" s="8">
+        <v>1</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
@@ -4616,10 +4592,10 @@
         <v>20</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
@@ -4656,7 +4632,7 @@
         <v>15</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E104" s="7">
         <v>9789045678</v>
@@ -4676,7 +4652,7 @@
         <v>15</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E105" s="8">
         <v>21331</v>
@@ -4696,7 +4672,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E106" s="7">
         <v>97989898982</v>
@@ -4716,7 +4692,7 @@
         <v>15</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>144</v>
@@ -4736,10 +4712,10 @@
         <v>15</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
@@ -4756,7 +4732,7 @@
         <v>15</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>144</v>
@@ -4776,7 +4752,7 @@
         <v>15</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -4810,14 +4786,14 @@
         <v>20</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H112" s="8"/>
     </row>
@@ -4852,7 +4828,7 @@
         <v>20</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -4912,16 +4888,16 @@
         <v>20</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>148</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H117" s="8"/>
     </row>
@@ -4952,10 +4928,10 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H119" s="8"/>
     </row>
@@ -4970,14 +4946,14 @@
         <v>20</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -4996,10 +4972,10 @@
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H121" s="8"/>
     </row>
@@ -5056,14 +5032,14 @@
         <v>20</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -5078,7 +5054,7 @@
         <v>20</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
@@ -5112,14 +5088,14 @@
         <v>20</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H127" s="8"/>
     </row>
@@ -5136,10 +5112,10 @@
         <v>5</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -5154,14 +5130,14 @@
         <v>20</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H129" s="8"/>
     </row>
@@ -5176,14 +5152,14 @@
         <v>20</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -5214,16 +5190,16 @@
         <v>15</v>
       </c>
       <c r="D132" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F132" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="G132" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -5238,16 +5214,16 @@
         <v>15</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G133" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="H133" s="8"/>
     </row>
@@ -5262,7 +5238,7 @@
         <v>15</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E134" s="7">
         <v>9889656446</v>
@@ -5286,14 +5262,14 @@
         <v>15</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H135" s="8"/>
     </row>
@@ -5322,20 +5298,20 @@
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H137" s="8"/>
     </row>
@@ -5344,20 +5320,20 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -5366,20 +5342,20 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H139" s="8"/>
     </row>
@@ -5388,20 +5364,20 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -5410,20 +5386,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H141" s="8"/>
     </row>
@@ -5432,20 +5408,20 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -5454,20 +5430,20 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H143" s="8"/>
     </row>
@@ -5476,20 +5452,20 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -5504,14 +5480,14 @@
         <v>20</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H145" s="8"/>
     </row>
@@ -5542,14 +5518,14 @@
         <v>20</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H147" s="8"/>
     </row>
@@ -5626,7 +5602,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5634,20 +5610,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5658,20 +5634,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5679,47 +5655,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5729,12 +5705,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5744,45 +5720,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5792,7 +5768,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5802,152 +5778,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5957,204 +5933,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6169,12 +6145,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13230"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
     <t>PATIENT_FUND_NAME</t>
   </si>
   <si>
-    <t>Breast Cancer Silo*</t>
+    <t>Hepatitis C***</t>
   </si>
   <si>
     <t>Enter fund name</t>
@@ -1231,12 +1231,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1261,9 +1261,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1277,6 +1297,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1293,21 +1345,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1315,16 +1352,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1339,45 +1376,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1392,6 +1391,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1399,7 +1405,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1426,7 +1432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,7 +1456,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,7 +1492,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,37 +1516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,19 +1540,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,37 +1570,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1588,19 +1600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,15 +1700,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1714,26 +1711,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1753,6 +1730,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1767,10 +1755,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1788,134 +1794,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1925,6 +1931,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2384,8 +2391,8 @@
   <sheetPr/>
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2710,7 +2717,7 @@
       <c r="D16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="7" t="s">

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1231,8 +1231,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1268,14 +1268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1284,6 +1277,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,15 +1298,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1321,6 +1320,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -1328,9 +1342,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,36 +1396,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1385,27 +1406,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,7 +1432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,13 +1450,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,7 +1534,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,145 +1606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,6 +1676,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1691,15 +1700,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1711,6 +1711,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1732,32 +1747,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1773,16 +1762,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1797,127 +1797,127 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2391,8 +2391,8 @@
   <sheetPr/>
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2526,7 +2526,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
@@ -18,7 +19,6 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -26,14 +26,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
+  <connection id="1" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="396">
   <si>
     <t>Step No</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>ByID</t>
-  </si>
-  <si>
-    <t>SSN_FIELD</t>
   </si>
   <si>
     <t>Enter SSN</t>
@@ -1229,14 +1226,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1266,152 +1257,8 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1426,198 +1273,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1627,29 +1288,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1657,10 +1318,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1668,258 +1329,16 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1933,57 +1352,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1994,7 +1366,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -2009,7 +1381,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2024,22 +1396,22 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2054,22 +1426,22 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2084,30 +1456,30 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2383,29 +1755,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85714285714286" style="4"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2479,18 +1851,14 @@
       <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -2499,20 +1867,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -2537,22 +1905,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -2561,22 +1929,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -2585,20 +1953,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H9" s="8"/>
     </row>
@@ -2607,13 +1975,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -2641,13 +2009,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -2675,13 +2043,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -2709,22 +2077,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -2749,22 +2117,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="7">
         <v>2</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -2773,22 +2141,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="8">
         <v>1000</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="H19" s="8"/>
     </row>
@@ -2797,20 +2165,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -2819,20 +2187,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -2841,20 +2209,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -2863,22 +2231,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="8">
         <v>10001</v>
       </c>
       <c r="F23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -2887,20 +2255,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -2917,7 +2285,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>13</v>
@@ -2929,16 +2297,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -2949,22 +2317,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="F27" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -2973,22 +2341,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -2997,22 +2365,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -3021,22 +2389,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -3045,22 +2413,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="F31" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -3069,20 +2437,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" s="7"/>
     </row>
@@ -3091,20 +2459,20 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="H33" s="8"/>
     </row>
@@ -3133,22 +2501,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="H35" s="8"/>
     </row>
@@ -3157,20 +2525,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H36" s="7"/>
     </row>
@@ -3179,20 +2547,20 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="H37" s="8"/>
     </row>
@@ -3201,22 +2569,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -3225,22 +2593,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="F39" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="G39" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="H39" s="8"/>
     </row>
@@ -3249,22 +2617,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" s="7">
         <v>10001</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -3273,22 +2641,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="H41" s="8"/>
     </row>
@@ -3297,16 +2665,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -3317,13 +2685,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" s="8">
         <v>9876543210</v>
@@ -3337,13 +2705,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="E44" s="7">
         <v>1</v>
@@ -3357,20 +2725,20 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="H45" s="8"/>
     </row>
@@ -3399,13 +2767,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -3417,22 +2785,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="G48" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H48" s="7"/>
     </row>
@@ -3441,22 +2809,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="F49" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="G49" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H49" s="8"/>
     </row>
@@ -3465,22 +2833,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -3489,22 +2857,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="G51" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -3513,22 +2881,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="G52" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H52" s="7"/>
     </row>
@@ -3537,22 +2905,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="G53" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H53" s="8"/>
     </row>
@@ -3561,22 +2929,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="7">
         <v>10001</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -3585,22 +2953,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E55" s="8">
         <v>9789123456</v>
       </c>
       <c r="F55" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="H55" s="8"/>
     </row>
@@ -3609,22 +2977,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -3633,20 +3001,20 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="H57" s="8"/>
     </row>
@@ -3675,22 +3043,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="F59" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="G59" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="H59" s="8"/>
     </row>
@@ -3715,16 +3083,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="H61" s="8"/>
     </row>
@@ -3733,22 +3101,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E62" s="7">
         <v>1</v>
       </c>
       <c r="F62" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -3757,20 +3125,20 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="H63" s="8"/>
     </row>
@@ -3779,22 +3147,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E64" s="7">
         <v>1</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H64" s="7"/>
     </row>
@@ -3803,20 +3171,20 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G65" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="H65" s="8"/>
     </row>
@@ -3825,22 +3193,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E66" s="7">
         <v>1235647899</v>
       </c>
       <c r="F66" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -3849,13 +3217,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -3867,20 +3235,20 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -3889,22 +3257,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E69" s="8">
         <v>97890456789</v>
       </c>
       <c r="F69" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G69" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="H69" s="8"/>
     </row>
@@ -3913,20 +3281,20 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -3935,22 +3303,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E71" s="8">
         <v>1230</v>
       </c>
       <c r="F71" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G71" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="H71" s="8"/>
     </row>
@@ -3959,22 +3327,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E72" s="7">
         <v>1550</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -3983,20 +3351,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H73" s="8"/>
     </row>
@@ -4005,20 +3373,20 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -4027,20 +3395,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H75" s="8"/>
     </row>
@@ -4049,20 +3417,20 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H76" s="7"/>
     </row>
@@ -4071,20 +3439,20 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="H77" s="8"/>
     </row>
@@ -4113,18 +3481,18 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H79" s="8"/>
     </row>
@@ -4149,20 +3517,20 @@
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H81" s="8"/>
     </row>
@@ -4187,22 +3555,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E83" s="8">
         <v>1</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H83" s="8"/>
     </row>
@@ -4211,20 +3579,20 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H84" s="7"/>
     </row>
@@ -4233,20 +3601,20 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H85" s="8"/>
     </row>
@@ -4255,20 +3623,20 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H86" s="7"/>
     </row>
@@ -4297,13 +3665,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
@@ -4331,20 +3699,20 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H90" s="7"/>
     </row>
@@ -4353,20 +3721,20 @@
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="H91" s="8"/>
     </row>
@@ -4375,20 +3743,20 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H92" s="7"/>
     </row>
@@ -4397,20 +3765,20 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H93" s="8"/>
     </row>
@@ -4419,20 +3787,20 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H94" s="7"/>
     </row>
@@ -4441,20 +3809,20 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H95" s="8"/>
     </row>
@@ -4463,20 +3831,20 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H96" s="7"/>
     </row>
@@ -4485,20 +3853,20 @@
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H97" s="8"/>
     </row>
@@ -4507,22 +3875,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D98" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="F98" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H98" s="7"/>
     </row>
@@ -4531,22 +3899,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D99" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E99" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="F99" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F99" s="8" t="s">
-        <v>223</v>
-      </c>
       <c r="G99" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H99" s="8"/>
     </row>
@@ -4555,13 +3923,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -4573,13 +3941,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E101" s="8">
         <v>1</v>
@@ -4593,16 +3961,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D102" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E102" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
@@ -4613,13 +3981,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E103" s="8">
         <v>10001</v>
@@ -4633,13 +4001,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E104" s="7">
         <v>9789045678</v>
@@ -4653,13 +4021,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E105" s="8">
         <v>21331</v>
@@ -4673,13 +4041,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E106" s="7">
         <v>97989898982</v>
@@ -4693,16 +4061,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
@@ -4713,16 +4081,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E108" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
@@ -4733,16 +4101,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
@@ -4753,13 +4121,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -4787,20 +4155,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G112" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>238</v>
       </c>
       <c r="H112" s="8"/>
     </row>
@@ -4817,7 +4185,7 @@
         <v>4</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>13</v>
@@ -4829,13 +4197,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -4847,20 +4215,20 @@
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G115" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="H115" s="8"/>
     </row>
@@ -4889,22 +4257,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D117" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F117" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E117" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F117" s="8" t="s">
+      <c r="G117" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="H117" s="8"/>
     </row>
@@ -4929,16 +4297,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G119" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="H119" s="8"/>
     </row>
@@ -4947,20 +4315,20 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -4969,20 +4337,20 @@
         <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G121" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="H121" s="8"/>
     </row>
@@ -4991,20 +4359,20 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G122" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H122" s="7"/>
     </row>
@@ -5033,20 +4401,20 @@
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G124" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -5055,13 +4423,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
@@ -5089,20 +4457,20 @@
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G127" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="H127" s="8"/>
     </row>
@@ -5119,10 +4487,10 @@
         <v>5</v>
       </c>
       <c r="F128" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -5131,20 +4499,20 @@
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G129" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="H129" s="8"/>
     </row>
@@ -5153,20 +4521,20 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G130" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -5191,22 +4559,22 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E132" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="F132" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="G132" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -5215,22 +4583,22 @@
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F133" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E133" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F133" s="8" t="s">
+      <c r="G133" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="H133" s="8"/>
     </row>
@@ -5239,22 +4607,22 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E134" s="7">
         <v>9889656446</v>
       </c>
       <c r="F134" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G134" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H134" s="7"/>
     </row>
@@ -5263,20 +4631,20 @@
         <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G135" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="H135" s="8"/>
     </row>
@@ -5296,7 +4664,7 @@
         <v>12</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H136" s="7"/>
     </row>
@@ -5305,20 +4673,20 @@
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G137" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>276</v>
       </c>
       <c r="H137" s="8"/>
     </row>
@@ -5327,20 +4695,20 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -5349,20 +4717,20 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H139" s="8"/>
     </row>
@@ -5371,20 +4739,20 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -5393,20 +4761,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H141" s="8"/>
     </row>
@@ -5415,20 +4783,20 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -5437,20 +4805,20 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H143" s="8"/>
     </row>
@@ -5459,20 +4827,20 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -5481,20 +4849,20 @@
         <v>144</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G145" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="H145" s="8"/>
     </row>
@@ -5519,20 +4887,20 @@
         <v>146</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G147" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="H147" s="8"/>
     </row>
@@ -5553,591 +4921,617 @@
       <c r="H148" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B128">
-      <formula1/>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>[6]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B44 C44 B63 B129 B12:B43 B45:B61 B65:B78 B116:B121 B122:B126 B131:B146 C2:C3 C12:C43 C45:C78 C116:C121 C122:C126 C129:C146">
-      <formula1>[7]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C90 B99 C99 B4:B11 B79:B98 B100:B111 B112:B113 C7:C9 C88:C89 C91:C94 C95:C98 C100:C105 C106:C111 C112:C113">
-      <formula1>[3]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62 B64">
-      <formula1>[8]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C115">
-      <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114:B115">
-      <formula1>[4]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B147:B148">
-      <formula1>[5]DataList!#REF!</formula1>
-    </dataValidation>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B128"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[2]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[3]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3 B44 C44 B63 B129 B12:B43 B45:B61 B65:B78 B116:B121 B122:B126 B131:B146 C2:C3 C12:C43 C45:C78 C116:C121 C122:C126 C129:C146</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[4]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4 C5 C6 C10 C11 C90 B99 C99 B4:B11 B79:B98 B100:B111 B112:B113 C7:C9 C88:C89 C91:C94 C95:C98 C100:C105 C106:C111 C112:C113</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[5]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B62 B64</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[6]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C115</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[7]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B114:B115</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[8]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B147:B148</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>299</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>301</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>303</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>305</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>306</v>
-      </c>
-      <c r="C8" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>311</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>313</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
         <v>323</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
+    <row r="66" spans="3:4">
+      <c r="C66" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
+    <row r="67" spans="3:4">
+      <c r="C67" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
+    <row r="68" spans="3:4">
+      <c r="C68" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
+    <row r="69" spans="3:4">
+      <c r="C69" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
+    <row r="70" spans="3:4">
+      <c r="C70" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" t="s">
         <v>368</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" t="s">
         <v>370</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
+    <row r="76" spans="3:4">
+      <c r="C76" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
+    <row r="77" spans="3:4">
+      <c r="C77" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" t="s">
         <v>376</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6152,12 +5546,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -6166,9 +5560,8 @@
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13230"/>
+    <workbookView windowWidth="27795" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
@@ -19,6 +18,7 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -26,14 +26,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
+  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395">
   <si>
     <t>Step No</t>
   </si>
@@ -80,33 +80,33 @@
     <t>SSN9Digit</t>
   </si>
   <si>
+    <t>Enter SSN</t>
+  </si>
+  <si>
+    <t>SSN entered</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>ByXPath</t>
+  </si>
+  <si>
+    <t>SEARCH_BUTTON_LINK</t>
+  </si>
+  <si>
+    <t>Click Search</t>
+  </si>
+  <si>
+    <t>Search button clicked</t>
+  </si>
+  <si>
+    <t>TypeDynamicAlpha</t>
+  </si>
+  <si>
     <t>ByID</t>
   </si>
   <si>
-    <t>Enter SSN</t>
-  </si>
-  <si>
-    <t>SSN entered</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>ByXPath</t>
-  </si>
-  <si>
-    <t>SEARCH_BUTTON_LINK</t>
-  </si>
-  <si>
-    <t>Click Search</t>
-  </si>
-  <si>
-    <t>Search button clicked</t>
-  </si>
-  <si>
-    <t>TypeDynamicAlpha</t>
-  </si>
-  <si>
     <t>FIRST_NAME_FIELD</t>
   </si>
   <si>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>Marital Status selected</t>
-  </si>
-  <si>
-    <t>Are you residing in the United States or a United States territory?</t>
   </si>
   <si>
     <t>NEXT_BUTTON</t>
@@ -1226,8 +1223,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1257,8 +1260,152 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1273,12 +1420,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1288,29 +1621,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1318,10 +1651,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1329,16 +1662,258 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1352,10 +1927,57 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1366,7 +1988,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -1381,7 +2003,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1396,7 +2018,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1411,7 +2033,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1426,7 +2048,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1441,7 +2063,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1456,7 +2078,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1471,7 +2093,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1755,29 +2377,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H148"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85714285714286" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1855,10 +2477,10 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1867,20 +2489,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -1905,10 +2527,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>24</v>
@@ -1929,10 +2551,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>28</v>
@@ -1953,10 +2575,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>32</v>
@@ -1975,10 +2597,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>35</v>
@@ -2009,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>36</v>
@@ -2043,10 +2665,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>37</v>
@@ -2080,7 +2702,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>39</v>
@@ -2120,7 +2742,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>44</v>
@@ -2144,7 +2766,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>47</v>
@@ -2165,10 +2787,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>50</v>
@@ -2187,10 +2809,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>53</v>
@@ -2209,10 +2831,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>54</v>
@@ -2234,7 +2856,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>55</v>
@@ -2255,10 +2877,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>58</v>
@@ -2300,7 +2922,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>63</v>
@@ -2320,7 +2942,7 @@
         <v>38</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>65</v>
@@ -2344,7 +2966,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>69</v>
@@ -2368,7 +2990,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>73</v>
@@ -2392,7 +3014,7 @@
         <v>38</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>77</v>
@@ -2416,7 +3038,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>81</v>
@@ -2433,3105 +3055,3057 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
+      <c r="B32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="8" t="s">
+      <c r="B33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7">
-        <v>10</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="7"/>
+      <c r="E34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="8" t="s">
+      <c r="B35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="C36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37" s="8" t="s">
+      <c r="B37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="E37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="7">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="8" t="s">
+      <c r="C39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="E39" s="7">
+        <v>10001</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="7">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="7"/>
+      <c r="E40" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" s="8" t="s">
+      <c r="B41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="E41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="B42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="E42" s="8">
+        <v>9876543210</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" s="8">
-        <v>9876543210</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="B44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7">
+        <v>10</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="7">
-        <v>1</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7">
-        <v>10</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="7"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="B47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="E47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="C48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="7"/>
+      <c r="E48" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G51" s="8" t="s">
+      <c r="C51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H51" s="8"/>
+      <c r="E51" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="7">
+      <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" s="7" t="s">
+      <c r="B52" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G52" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H52" s="7"/>
+      <c r="E52" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="8" t="s">
+      <c r="C53" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G53" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H53" s="8"/>
+      <c r="E53" s="7">
+        <v>10001</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="C54" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="H54" s="7"/>
+      <c r="E54" s="8">
+        <v>9789123456</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7">
+        <v>10</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="8">
-        <v>9789123456</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G56" s="7" t="s">
+      <c r="C58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="8">
-        <v>56</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7">
-        <v>10</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="7"/>
+      <c r="E58" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H59" s="8"/>
+      <c r="B59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7">
+        <v>5</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7">
-        <v>5</v>
-      </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
+      <c r="B60" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="8">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="7">
+        <v>1</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="7">
-        <v>61</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E62" s="7">
-        <v>1</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="8">
+      <c r="G63" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H63" s="8"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="7">
-        <v>63</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E64" s="7">
-        <v>1</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G64" s="7" t="s">
+      <c r="C64" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="H64" s="7"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G65" s="8" t="s">
+      <c r="B65" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H65" s="8"/>
+      <c r="E65" s="7">
+        <v>1235647899</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E66" s="7">
-        <v>1235647899</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G66" s="7" t="s">
+      <c r="B66" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="H66" s="7"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="8" t="s">
+      <c r="B67" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="7">
+      <c r="A68" s="8">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G68" s="7" t="s">
+      <c r="B68" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="H68" s="7"/>
+      <c r="E68" s="8">
+        <v>97890456789</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="8">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E69" s="8">
-        <v>97890456789</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H69" s="8"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="7">
-        <v>69</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G70" s="7" t="s">
+      <c r="C70" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H70" s="7"/>
+      <c r="E70" s="8">
+        <v>1230</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E71" s="8">
-        <v>1230</v>
-      </c>
-      <c r="F71" s="8" t="s">
+      <c r="C71" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" s="7">
+        <v>1550</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G71" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H71" s="8"/>
+      <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E72" s="7">
-        <v>1550</v>
-      </c>
-      <c r="F72" s="7" t="s">
+      <c r="B72" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H72" s="7"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8" t="s">
+      <c r="B73" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G73" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H73" s="8"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="7">
+      <c r="A74" s="8">
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7" t="s">
+      <c r="B74" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G74" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H74" s="7"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8" t="s">
+      <c r="B75" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G75" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H75" s="8"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="7">
+      <c r="A76" s="8">
         <v>75</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H76" s="7"/>
+      <c r="B76" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="7">
+      <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H77" s="8"/>
+      <c r="B77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7">
+        <v>10</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="7"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7">
-        <v>10</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="7">
-        <v>78</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="8" t="s">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7">
+        <v>3</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H79" s="8"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="7">
-        <v>79</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7">
-        <v>3</v>
-      </c>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
+      <c r="B81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7">
+        <v>2</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="8">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G81" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H81" s="8"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="7">
-        <v>81</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7">
-        <v>2</v>
-      </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
+      <c r="E82" s="8">
+        <v>1</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="7">
+      <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E83" s="8">
-        <v>1</v>
-      </c>
-      <c r="F83" s="8" t="s">
+      <c r="B83" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G83" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H83" s="8"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="7" t="s">
+      <c r="C84" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84" s="7"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="7">
+      <c r="A85" s="8">
         <v>84</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8" t="s">
+      <c r="B85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G85" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H85" s="8"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="7">
+      <c r="A86" s="8">
         <v>85</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H86" s="7"/>
+      <c r="B86" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8">
+        <v>4</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="8">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8">
-        <v>4</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="8"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="7">
-        <v>87</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="7" t="s">
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8">
+        <v>5</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="8">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="7">
-        <v>88</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8">
-        <v>5</v>
-      </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="7" t="s">
+      <c r="C90" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H90" s="7"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="7">
+      <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="8">
+        <v>91</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H91" s="8"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="7">
-        <v>91</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7" t="s">
+      <c r="C92" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G92" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H92" s="7"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="8" t="s">
+      <c r="B93" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H93" s="8"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="7">
+      <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7" t="s">
+      <c r="B94" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G94" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H94" s="7"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" s="8"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="7">
+      <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8" t="s">
+      <c r="B95" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="E95" s="7"/>
+      <c r="F95" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H95" s="8"/>
+      <c r="H95" s="7"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7" t="s">
+      <c r="B96" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="E96" s="8"/>
+      <c r="F96" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H96" s="7"/>
+      <c r="H96" s="8"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="7">
+      <c r="A97" s="8">
         <v>96</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8" t="s">
+      <c r="B97" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G97" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H97" s="8"/>
+      <c r="E97" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H97" s="7"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="7">
+      <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G98" s="7" t="s">
+      <c r="B98" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H98" s="7"/>
+      <c r="E98" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H98" s="8"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F99" s="8" t="s">
+      <c r="C99" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G99" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H99" s="8"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="7">
+      <c r="A100" s="8">
         <v>99</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="7" t="s">
+      <c r="B100" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
+      <c r="E100" s="8">
+        <v>1</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="7">
+      <c r="A101" s="8">
         <v>100</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="8" t="s">
+      <c r="B101" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E101" s="8">
-        <v>1</v>
-      </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
+      <c r="E101" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E102" s="7" t="s">
+      <c r="C102" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="8">
+        <v>102</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="7">
-        <v>102</v>
-      </c>
-      <c r="B103" s="8" t="s">
+      <c r="E103" s="7">
+        <v>9789045678</v>
+      </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="8">
+        <v>103</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E103" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="7">
-        <v>103</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="7" t="s">
+      <c r="C104" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E104" s="7">
-        <v>9789045678</v>
-      </c>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
+      <c r="E104" s="8">
+        <v>21331</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C105" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="8" t="s">
+      <c r="C105" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E105" s="8">
-        <v>21331</v>
-      </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
+      <c r="E105" s="7">
+        <v>97989898982</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="7">
+      <c r="A106" s="8">
         <v>105</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="7" t="s">
+      <c r="B106" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E106" s="7">
-        <v>97989898982</v>
-      </c>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
+      <c r="E106" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="7">
+      <c r="A107" s="8">
         <v>106</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="8" t="s">
+      <c r="C107" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E107" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
+      <c r="E107" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C108" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E108" s="7" t="s">
+      <c r="C108" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
+      <c r="E108" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="7">
+      <c r="A109" s="8">
         <v>108</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="8" t="s">
+      <c r="B109" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E109" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="7">
+      <c r="A110" s="8">
         <v>109</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
+      <c r="B110" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8">
+        <v>2</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="7">
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="8">
+        <v>111</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8">
-        <v>2</v>
-      </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="7">
-        <v>111</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G112" s="8" t="s">
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7">
+        <v>4</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="8"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="8">
+        <v>112</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H112" s="8"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="7">
-        <v>112</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7">
-        <v>4</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" s="8"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" s="7" t="s">
+      <c r="B114" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H114" s="8"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7">
+        <v>10</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="8">
+        <v>115</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="7">
-        <v>114</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H115" s="8"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="7">
-        <v>115</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7">
-        <v>10</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="7"/>
+      <c r="E116" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H116" s="8"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="G117" s="8" t="s">
+      <c r="B117" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7">
+        <v>5</v>
+      </c>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="8">
+        <v>117</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H117" s="8"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="7">
-        <v>117</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7">
-        <v>5</v>
-      </c>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
+      <c r="G118" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H118" s="8"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="7">
+      <c r="A119" s="8">
         <v>118</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="G119" s="8" t="s">
+      <c r="B119" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H119" s="8"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="7" t="s">
+      <c r="B120" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7" t="s">
+      <c r="G120" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="G120" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H120" s="7"/>
+      <c r="H120" s="8"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="7">
+      <c r="A121" s="8">
         <v>120</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="H121" s="8"/>
+      <c r="B121" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="7">
+      <c r="A122" s="8">
         <v>121</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H122" s="7"/>
+      <c r="B122" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8">
+        <v>10</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" s="8"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H123" s="7"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="8">
+        <v>123</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="8">
+        <v>124</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8">
-        <v>10</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" s="8"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="7">
-        <v>123</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H124" s="7"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="7">
-        <v>124</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7">
+        <v>1</v>
+      </c>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="8">
+        <v>126</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7">
-        <v>1</v>
-      </c>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="7">
-        <v>126</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G127" s="8" t="s">
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7">
+        <v>5</v>
+      </c>
+      <c r="F127" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H127" s="8"/>
+      <c r="G127" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="7">
+      <c r="A128" s="8">
         <v>127</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7">
-        <v>5</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G128" s="7" t="s">
+      <c r="B128" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="H128" s="7"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H128" s="8"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="G129" s="8" t="s">
+      <c r="B129" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H129" s="8"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="7">
+      <c r="A130" s="8">
         <v>129</v>
       </c>
-      <c r="B130" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G130" s="7" t="s">
+      <c r="B130" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8">
+        <v>2</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="8">
+        <v>130</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H130" s="7"/>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="7">
-        <v>130</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8">
-        <v>2</v>
-      </c>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
+      <c r="E131" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H131" s="7"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G132" s="7" t="s">
+      <c r="C132" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="H132" s="7"/>
+      <c r="E132" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H132" s="8"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="7">
+      <c r="A133" s="8">
         <v>132</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G133" s="8" t="s">
+      <c r="B133" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E133" s="7">
+        <v>9889656446</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H133" s="7"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="8">
+        <v>133</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="H133" s="8"/>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="7">
-        <v>133</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E134" s="7">
-        <v>9889656446</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H134" s="7"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="G135" s="8" t="s">
+      <c r="B135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7">
+        <v>10</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H135" s="7"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="8">
+        <v>135</v>
+      </c>
+      <c r="B136" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="H135" s="8"/>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="7">
-        <v>135</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7">
-        <v>10</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H136" s="7"/>
+      <c r="C136" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H136" s="8"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="7">
+      <c r="A137" s="8">
         <v>136</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8" t="s">
+      <c r="B137" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G137" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H137" s="8"/>
+      <c r="H137" s="7"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7" t="s">
+      <c r="B138" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="G138" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H138" s="7"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H138" s="8"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="7">
+      <c r="A139" s="8">
         <v>138</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8" t="s">
+      <c r="B139" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G139" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H139" s="8"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H139" s="7"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="7">
+      <c r="A140" s="8">
         <v>139</v>
       </c>
-      <c r="B140" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7" t="s">
+      <c r="B140" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="G140" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H140" s="7"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H140" s="8"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8" t="s">
+      <c r="B141" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="G141" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H141" s="8"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H141" s="7"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="7">
+      <c r="A142" s="8">
         <v>141</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7" t="s">
+      <c r="B142" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="G142" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H142" s="7"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H142" s="8"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="7">
+      <c r="A143" s="8">
         <v>142</v>
       </c>
-      <c r="B143" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8" t="s">
+      <c r="B143" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G143" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H143" s="8"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H143" s="7"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7" t="s">
+      <c r="B144" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="G144" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H144" s="7"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H144" s="8"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="7">
+      <c r="A145" s="8">
         <v>144</v>
       </c>
-      <c r="B145" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G145" s="8" t="s">
+      <c r="B145" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7">
+        <v>5</v>
+      </c>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="8">
+        <v>145</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="H145" s="8"/>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="7">
-        <v>145</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7">
-        <v>5</v>
-      </c>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H146" s="8"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="H147" s="8"/>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="7">
-        <v>147</v>
-      </c>
-      <c r="B148" s="7" t="s">
+      <c r="B147" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7">
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7">
         <v>4</v>
       </c>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B128"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B127">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>[2]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B43 C43 B62 B128 B12:B31 B32:B42 B44:B60 B64:B77 B115:B120 B121:B125 B130:B145 C2:C3 C12:C31 C32:C42 C44:C77 C115:C120 C121:C125 C128:C145">
+      <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C89 B98 C98 B4:B11 B78:B97 B99:B110 B111:B112 C7:C9 C87:C88 C90:C93 C94:C97 C99:C104 C105:C110 C111:C112">
+      <formula1>[4]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61 B63">
+      <formula1>[5]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C114">
+      <formula1>[6]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113:B114">
+      <formula1>[7]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146:B147">
+      <formula1>[8]DataList!#REF!</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[2]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[3]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3 B44 C44 B63 B129 B12:B43 B45:B61 B65:B78 B116:B121 B122:B126 B131:B146 C2:C3 C12:C43 C45:C78 C116:C121 C122:C126 C129:C146</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[4]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4 C5 C6 C10 C11 C90 B99 C99 B4:B11 B79:B98 B100:B111 B112:B113 C7:C9 C88:C89 C91:C94 C95:C98 C100:C105 C106:C111 C112:C113</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[5]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B62 B64</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[6]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C115</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[7]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B114:B115</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[8]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B147:B148</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>298</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>300</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>302</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>304</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>305</v>
-      </c>
-      <c r="C8" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>310</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>312</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="C13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="C16" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
         <v>322</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
-      <c r="C25" t="s">
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:3">
       <c r="C28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:3">
       <c r="C29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
-      <c r="C30" t="s">
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
-      <c r="C31" t="s">
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
-      <c r="C65" t="s">
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
-      <c r="C66" t="s">
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
-      <c r="C67" t="s">
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="3:4">
-      <c r="C68" t="s">
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
-      <c r="C69" t="s">
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4">
-      <c r="C70" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
         <v>367</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4">
-      <c r="C72" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
         <v>369</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4">
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="75" spans="3:4">
-      <c r="C75" t="s">
+    <row r="76" spans="3:3">
+      <c r="C76" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="76" spans="3:4">
-      <c r="C76" t="s">
+    <row r="77" spans="3:3">
+      <c r="C77" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4">
-      <c r="C77" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
         <v>375</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4">
-      <c r="C80" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -5546,12 +6120,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -5560,8 +6134,9 @@
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378">
   <si>
     <t>Step No</t>
   </si>
@@ -848,151 +848,100 @@
     <t>Sign and submit button clicked</t>
   </si>
   <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Click on logout</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
     <t>GetText</t>
-  </si>
-  <si>
-    <t>SUBMIT_PATIENT_NAME</t>
-  </si>
-  <si>
-    <t>Get Patient Name</t>
-  </si>
-  <si>
-    <t>Retrieved succussfully</t>
-  </si>
-  <si>
-    <t>SUBMIT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Get Fund Name</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_FROM</t>
-  </si>
-  <si>
-    <t>Get award period from</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get award period to </t>
-  </si>
-  <si>
-    <t>SUBMIT_CARDHOLDER</t>
-  </si>
-  <si>
-    <t>Get cardholder</t>
-  </si>
-  <si>
-    <t>SUBMIT_BIN</t>
-  </si>
-  <si>
-    <t>Get BIN</t>
-  </si>
-  <si>
-    <t>SUBMIT_PCN</t>
-  </si>
-  <si>
-    <t>Get PCN</t>
-  </si>
-  <si>
-    <t>SUBMIT_GROUP</t>
-  </si>
-  <si>
-    <t>Get group</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
   </si>
   <si>
     <t>GetAttribute</t>
@@ -2383,10 +2332,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A147"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -5249,7 +5198,7 @@
       <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="7">
+      <c r="A135" s="8">
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
@@ -5273,20 +5222,20 @@
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G136" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="H136" s="8"/>
     </row>
@@ -5295,42 +5244,36 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7">
+        <v>5</v>
+      </c>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="8">
+        <v>137</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="H137" s="7"/>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="7">
-        <v>137</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="E138" s="8"/>
       <c r="F138" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H138" s="8"/>
     </row>
@@ -5339,186 +5282,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>274</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7">
+        <v>4</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
       <c r="H139" s="7"/>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="8">
-        <v>139</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="H140" s="8"/>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="7">
-        <v>140</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H141" s="7"/>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="8">
-        <v>141</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="H142" s="8"/>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="8">
-        <v>142</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H143" s="7"/>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="7">
-        <v>143</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="H144" s="8"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="8">
-        <v>144</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7">
-        <v>5</v>
-      </c>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="8">
-        <v>145</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="H146" s="8"/>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="7">
-        <v>146</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7">
-        <v>4</v>
-      </c>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="9">
@@ -5531,7 +5304,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B43 C43 B62 B128 B12:B31 B32:B42 B44:B60 B64:B77 B115:B120 B121:B125 B130:B145 C2:C3 C12:C31 C32:C42 C44:C77 C115:C120 C121:C125 C128:C145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B43 C43 B62 B128 B12:B31 B32:B42 B44:B60 B64:B77 B115:B120 B121:B125 B130:B135 B136:B137 C2:C3 C12:C31 C32:C42 C44:C77 C115:C120 C121:C125 C128:C135 C136:C137">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C89 B98 C98 B4:B11 B78:B97 B99:B110 B111:B112 C7:C9 C87:C88 C90:C93 C94:C97 C99:C104 C105:C110 C111:C112">
@@ -5546,7 +5319,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113:B114">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146:B147">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138:B139">
       <formula1>[8]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5577,7 +5350,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5585,20 +5358,20 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5609,20 +5382,20 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -5630,47 +5403,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C10" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5680,12 +5453,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5695,45 +5468,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5743,7 +5516,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5753,152 +5526,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5908,204 +5681,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6120,12 +5893,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395">
   <si>
     <t>Step No</t>
   </si>
@@ -848,6 +848,60 @@
     <t>Sign and submit button clicked</t>
   </si>
   <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>SUBMIT_PATIENT_NAME</t>
+  </si>
+  <si>
+    <t>Get Patient Name</t>
+  </si>
+  <si>
+    <t>Retrieved succussfully</t>
+  </si>
+  <si>
+    <t>SUBMIT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Get Fund Name</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_FROM</t>
+  </si>
+  <si>
+    <t>Get award period from</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get award period to </t>
+  </si>
+  <si>
+    <t>SUBMIT_CARDHOLDER</t>
+  </si>
+  <si>
+    <t>Get cardholder</t>
+  </si>
+  <si>
+    <t>SUBMIT_BIN</t>
+  </si>
+  <si>
+    <t>Get BIN</t>
+  </si>
+  <si>
+    <t>SUBMIT_PCN</t>
+  </si>
+  <si>
+    <t>Get PCN</t>
+  </si>
+  <si>
+    <t>SUBMIT_GROUP</t>
+  </si>
+  <si>
+    <t>Get group</t>
+  </si>
+  <si>
     <t>RETURN_HOME</t>
   </si>
   <si>
@@ -939,9 +993,6 @@
   </si>
   <si>
     <t>MouseOverAndClick</t>
-  </si>
-  <si>
-    <t>GetText</t>
   </si>
   <si>
     <t>GetAttribute</t>
@@ -2332,10 +2383,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+      <selection activeCell="A136" sqref="$A136:$XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -5198,7 +5249,7 @@
       <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="8">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
@@ -5222,20 +5273,20 @@
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H136" s="8"/>
     </row>
@@ -5244,36 +5295,42 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7">
-        <v>5</v>
-      </c>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
+        <v>271</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="H137" s="7"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="8">
+      <c r="A138" s="7">
         <v>137</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E138" s="8"/>
       <c r="F138" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H138" s="8"/>
     </row>
@@ -5282,16 +5339,186 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H139" s="7"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="8">
+        <v>139</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H140" s="8"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="7">
+        <v>140</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H141" s="7"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="8">
+        <v>141</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H142" s="8"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="8">
+        <v>142</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H143" s="7"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="7">
+        <v>143</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H144" s="8"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="8">
+        <v>144</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7">
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7">
+        <v>5</v>
+      </c>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="8">
+        <v>145</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H146" s="8"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="7">
+        <v>146</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7">
         <v>4</v>
       </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="9">
@@ -5304,7 +5531,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B43 C43 B62 B128 B12:B31 B32:B42 B44:B60 B64:B77 B115:B120 B121:B125 B130:B135 B136:B137 C2:C3 C12:C31 C32:C42 C44:C77 C115:C120 C121:C125 C128:C135 C136:C137">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B43 C43 B62 B128 B12:B31 B32:B42 B44:B60 B64:B77 B115:B120 B121:B125 B130:B145 C2:C3 C12:C31 C32:C42 C44:C77 C115:C120 C121:C125 C128:C145">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C89 B98 C98 B4:B11 B78:B97 B99:B110 B111:B112 C7:C9 C87:C88 C90:C93 C94:C97 C99:C104 C105:C110 C111:C112">
@@ -5319,7 +5546,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113:B114">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138:B139">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146:B147">
       <formula1>[8]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5350,7 +5577,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5358,20 +5585,20 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5382,20 +5609,20 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -5403,47 +5630,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="C10" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C11" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5453,12 +5680,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5468,45 +5695,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5516,7 +5743,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5526,152 +5753,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5681,204 +5908,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -5893,12 +6120,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Delete_Provider.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378">
   <si>
     <t>Step No</t>
   </si>
@@ -848,151 +848,100 @@
     <t>Sign and submit button clicked</t>
   </si>
   <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Click on logout</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
     <t>GetText</t>
-  </si>
-  <si>
-    <t>SUBMIT_PATIENT_NAME</t>
-  </si>
-  <si>
-    <t>Get Patient Name</t>
-  </si>
-  <si>
-    <t>Retrieved succussfully</t>
-  </si>
-  <si>
-    <t>SUBMIT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Get Fund Name</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_FROM</t>
-  </si>
-  <si>
-    <t>Get award period from</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get award period to </t>
-  </si>
-  <si>
-    <t>SUBMIT_CARDHOLDER</t>
-  </si>
-  <si>
-    <t>Get cardholder</t>
-  </si>
-  <si>
-    <t>SUBMIT_BIN</t>
-  </si>
-  <si>
-    <t>Get BIN</t>
-  </si>
-  <si>
-    <t>SUBMIT_PCN</t>
-  </si>
-  <si>
-    <t>Get PCN</t>
-  </si>
-  <si>
-    <t>SUBMIT_GROUP</t>
-  </si>
-  <si>
-    <t>Get group</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
   </si>
   <si>
     <t>GetAttribute</t>
@@ -2383,10 +2332,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A136" sqref="$A136:$XFD143"/>
+      <selection activeCell="A133" sqref="A133:A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -5249,7 +5198,7 @@
       <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="7">
+      <c r="A135" s="8">
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
@@ -5273,20 +5222,20 @@
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G136" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="H136" s="8"/>
     </row>
@@ -5295,42 +5244,36 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7">
+        <v>5</v>
+      </c>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="8">
+        <v>137</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="H137" s="7"/>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="7">
-        <v>137</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="E138" s="8"/>
       <c r="F138" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H138" s="8"/>
     </row>
@@ -5339,186 +5282,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>274</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7">
+        <v>4</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
       <c r="H139" s="7"/>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="8">
-        <v>139</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="H140" s="8"/>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="7">
-        <v>140</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H141" s="7"/>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="8">
-        <v>141</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="H142" s="8"/>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="8">
-        <v>142</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H143" s="7"/>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="7">
-        <v>143</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="H144" s="8"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="8">
-        <v>144</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7">
-        <v>5</v>
-      </c>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="8">
-        <v>145</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="H146" s="8"/>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="7">
-        <v>146</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7">
-        <v>4</v>
-      </c>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="9">
@@ -5531,7 +5304,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B43 C43 B62 B128 B12:B31 B32:B42 B44:B60 B64:B77 B115:B120 B121:B125 B130:B145 C2:C3 C12:C31 C32:C42 C44:C77 C115:C120 C121:C125 C128:C145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B43 C43 B62 B128 B12:B31 B32:B42 B44:B60 B64:B77 B115:B120 B121:B125 B130:B135 B136:B137 C2:C3 C12:C31 C32:C42 C44:C77 C115:C120 C121:C125 C128:C135 C136:C137">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C89 B98 C98 B4:B11 B78:B97 B99:B110 B111:B112 C7:C9 C87:C88 C90:C93 C94:C97 C99:C104 C105:C110 C111:C112">
@@ -5546,7 +5319,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113:B114">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146:B147">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138:B139">
       <formula1>[8]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5577,7 +5350,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5585,20 +5358,20 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5609,20 +5382,20 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -5630,47 +5403,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C10" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5680,12 +5453,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5695,45 +5468,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5743,7 +5516,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5753,152 +5526,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5908,204 +5681,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6120,12 +5893,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
